--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5EE7E-4BF2-4630-BB3F-EF250920CAB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{793A1DF7-D7C3-4DD0-B68A-59D56D3676D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="22344" windowHeight="11628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -606,7 +606,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +618,161 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,59 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -712,9 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -724,6 +823,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -742,119 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1988,8 +1984,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{101B7223-6735-4CEE-B446-1D31F49C4F35}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{67476E89-BBC9-4054-8C64-EA9760654F29}" diskRevisions="1" version="2">
   <header guid="{101B7223-6735-4CEE-B446-1D31F49C4F35}" dateTime="2020-09-27T23:04:33" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{67476E89-BBC9-4054-8C64-EA9760654F29}" dateTime="2020-09-27T23:21:55" maxSheetId="2" userName="Richard Ketchersid" r:id="rId2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1999,6 +2000,18 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="E12:F13">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+  </rfmt>
+  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="delete"/>
+  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2270,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2289,361 +2302,361 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="I3" s="7" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="I3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="I4" s="9" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="I5" s="11" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="I6" s="13" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="I7" s="14" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
+      <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="I8" s="15" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="18" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="3"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="75">
+      <c r="A18" s="48">
         <v>600</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="49">
         <v>0.05</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="37">
         <f>A$18*B$18*C18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <f>C18+1</f>
         <v>1</v>
       </c>
-      <c r="D19" s="62">
-        <f t="shared" ref="D19:D31" si="0">A$18*B$18*C19</f>
+      <c r="D19" s="38">
+        <f t="shared" ref="D19:D24" si="0">A$18*B$18*C19</f>
         <v>30</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <f t="shared" ref="C20:C23" si="1">C19+1</f>
         <v>2</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="39">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="39">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="39">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="38">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <v>10</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="40">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>15</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>25</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>30</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>40</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>50</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1">
         <v>60</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32"/>
@@ -2752,8 +2765,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dNllrcu55QHhDAaF/T9QggvFtznIHTbvbfSGX5q4nTpP8s7GGDcD7qJzCNnRH8DG7T+JOcw/0pRjew3wGP/+ug==" saltValue="y7DEdhODJ3H+A7jeZ8E3Nw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130" topLeftCell="A10">
-      <selection activeCell="B19" sqref="B19"/>
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130" topLeftCell="A13">
+      <selection activeCell="E20" sqref="E20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{793A1DF7-D7C3-4DD0-B68A-59D56D3676D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{5D20E119-F9D9-4A41-BF34-9CF798DACF86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="22344" windowHeight="11628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Principal</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Experiment with different values of P until the value after 10 years is at least $10,000. Find the least such value of P in whole dollars for simple interest and compound interest. What value did you use?  Answer below.</t>
+  </si>
+  <si>
+    <t>Copy the exact FV for each case and paste here as a value.</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -600,13 +603,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,8 +866,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1947,15 +1975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23446</xdr:rowOff>
+      <xdr:colOff>67408</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>52754</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>164121</xdr:rowOff>
+      <xdr:colOff>82062</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1984,13 +2012,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{67476E89-BBC9-4054-8C64-EA9760654F29}" diskRevisions="1" version="2">
-  <header guid="{101B7223-6735-4CEE-B446-1D31F49C4F35}" dateTime="2020-09-27T23:04:33" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{67476E89-BBC9-4054-8C64-EA9760654F29}" dateTime="2020-09-27T23:21:55" maxSheetId="2" userName="Richard Ketchersid" r:id="rId2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{832D7A32-0D54-4FBB-B11B-ED5815106148}">
+  <header guid="{832D7A32-0D54-4FBB-B11B-ED5815106148}" dateTime="2020-10-12T16:12:39" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -2000,18 +2023,6 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="E12:F13">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-  </rfmt>
-  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="delete"/>
-  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2283,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2413,7 +2424,7 @@
       <c r="F10" s="70"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2431,13 +2442,19 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="75"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="77"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="75"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="3"/>
@@ -2763,21 +2780,22 @@
       <c r="F44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dNllrcu55QHhDAaF/T9QggvFtznIHTbvbfSGX5q4nTpP8s7GGDcD7qJzCNnRH8DG7T+JOcw/0pRjew3wGP/+ug==" saltValue="y7DEdhODJ3H+A7jeZ8E3Nw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UN+a5EGTDltDHyotZ4mucifhIzs4thum0qTneCKdpYEdskIZ3vEikHVX8fmb0I/XsRP537NSNylNsygZLHXhEw==" saltValue="NTDchkMeZeU6gpmf3m/SlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130" topLeftCell="A13">
-      <selection activeCell="E20" sqref="E20"/>
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
+      <selection activeCell="G12" sqref="G12:H13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B2:G6"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{5D20E119-F9D9-4A41-BF34-9CF798DACF86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="10_ncr:80_{D05394CE-6BE2-4CBA-9938-D304B64A0FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55582A18-81D4-4991-A1C1-18449555D399}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="22344" windowHeight="11628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="61" yWindow="61" windowWidth="1862" windowHeight="969" tabRatio="500" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="110" yWindow="26" windowWidth="1862" windowHeight="969" tabRatio="500" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Principal</t>
   </si>
@@ -135,6 +138,81 @@
   </si>
   <si>
     <t>Copy the exact FV for each case and paste here as a value.</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Rand1</t>
+  </si>
+  <si>
+    <t>Rand2</t>
+  </si>
+  <si>
+    <t>Rand3</t>
+  </si>
+  <si>
+    <t>Rand4</t>
+  </si>
+  <si>
+    <t>Rand5</t>
+  </si>
+  <si>
+    <t>Rand6</t>
+  </si>
+  <si>
+    <t>Rand7</t>
+  </si>
+  <si>
+    <t>Rand8</t>
+  </si>
+  <si>
+    <t>Rand9</t>
+  </si>
+  <si>
+    <t>Rand10</t>
+  </si>
+  <si>
+    <t>Rand11</t>
+  </si>
+  <si>
+    <t>Rand12</t>
+  </si>
+  <si>
+    <t>Rand13</t>
+  </si>
+  <si>
+    <t>Rand14</t>
+  </si>
+  <si>
+    <t>Rand15</t>
+  </si>
+  <si>
+    <t>Rand16</t>
+  </si>
+  <si>
+    <t>Rand17</t>
+  </si>
+  <si>
+    <t>Rand18</t>
+  </si>
+  <si>
+    <t>Rand19</t>
+  </si>
+  <si>
+    <t>Rand20</t>
+  </si>
+  <si>
+    <t>Rand21</t>
+  </si>
+  <si>
+    <t>Rand22</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Full Name (5 letters)</t>
   </si>
 </sst>
 </file>
@@ -145,7 +223,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,8 +246,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +711,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,6 +878,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,9 +961,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -880,6 +972,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1075,22 +1181,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,24 +2117,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{832D7A32-0D54-4FBB-B11B-ED5815106148}">
-  <header guid="{832D7A32-0D54-4FBB-B11B-ED5815106148}" dateTime="2020-10-12T16:12:39" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2294,14 +2382,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" style="4" customWidth="1"/>
@@ -2311,36 +2399,36 @@
     <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="54" t="s">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1"/>
+    <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1">
+      <c r="B2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="I3" s="52" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.2" thickTop="1">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2348,13 +2436,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+    <row r="5" spans="1:10">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2362,13 +2450,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+    <row r="6" spans="1:10" ht="16.2" thickBot="1">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
@@ -2376,15 +2464,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="72" t="s">
+    <row r="7" spans="1:10" ht="16.2" thickBot="1">
+      <c r="B7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
@@ -2392,15 +2480,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="63" t="s">
+    <row r="8" spans="1:10" ht="16.2" customHeight="1" thickBot="1">
+      <c r="B8" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2408,23 +2496,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="16.2" thickTop="1">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2436,42 +2524,49 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="48"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A14" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="84"/>
       <c r="E14" s="41"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="50" t="s">
+    <row r="15" spans="1:10" ht="16.2" thickBot="1">
+      <c r="D15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="31.2">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="16.2" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -2517,102 +2612,103 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="48">
         <v>600</v>
       </c>
-      <c r="B18" s="49">
-        <v>0.05</v>
+      <c r="B18" s="49" t="str">
+        <f>IF(C14="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
+        <v>Fill C14</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="37">
-        <f>A$18*B$18*C18</f>
-        <v>0</v>
+      <c r="D18" s="37" t="str">
+        <f>IF(C$14="Full Name (5 letters)", "Fill C14",A$18*B$18*C18)</f>
+        <v>Fill C14</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="C19" s="1">
         <f>C18+1</f>
         <v>1</v>
       </c>
-      <c r="D19" s="38">
-        <f t="shared" ref="D19:D24" si="0">A$18*B$18*C19</f>
-        <v>30</v>
+      <c r="D19" s="38" t="str">
+        <f t="shared" ref="D19:D24" si="0">IF(C$14="Full Name (5 letters)", "Fill C14",A$18*B$18*C19)</f>
+        <v>Fill C14</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="C20" s="1">
         <f t="shared" ref="C20:C23" si="1">C19+1</f>
         <v>2</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>Fill C14</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>Fill C14</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="C22" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>Fill C14</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="C23" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>Fill C14</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="16.2" thickBot="1">
       <c r="C24" s="1">
         <v>10</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>Fill C14</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="C25" s="1">
         <v>15</v>
       </c>
@@ -2621,7 +2717,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -2630,7 +2726,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="C27" s="1">
         <v>25</v>
       </c>
@@ -2639,7 +2735,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="C28" s="1">
         <v>30</v>
       </c>
@@ -2648,7 +2744,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="C29" s="1">
         <v>40</v>
       </c>
@@ -2657,7 +2753,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="C30" s="1">
         <v>50</v>
       </c>
@@ -2666,7 +2762,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.2" thickBot="1">
       <c r="C31" s="1">
         <v>60</v>
       </c>
@@ -2675,7 +2771,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2683,7 +2779,7 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2691,7 +2787,7 @@
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2699,7 +2795,7 @@
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2707,7 +2803,7 @@
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2715,7 +2811,7 @@
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2723,7 +2819,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2731,7 +2827,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2739,7 +2835,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2747,7 +2843,7 @@
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2755,7 +2851,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2763,7 +2859,7 @@
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2771,7 +2867,7 @@
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2780,15 +2876,15 @@
       <c r="F44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UN+a5EGTDltDHyotZ4mucifhIzs4thum0qTneCKdpYEdskIZ3vEikHVX8fmb0I/XsRP537NSNylNsygZLHXhEw==" saltValue="NTDchkMeZeU6gpmf3m/SlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QoS5bMTgt1giztW+3cm/4Evo8F2eUYfvsIr/XXSJm8TJCN+RwEWPmX3d5RUqhevnMKg1FU3aSQA26tvMdJlx5Q==" saltValue="psu2jzljY5jsulJF4hlQWQ==" spinCount="100000" sheet="1" formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130" topLeftCell="A13">
       <selection activeCell="G12" sqref="G12:H13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I3:J3"/>
@@ -2796,9 +2892,1542 @@
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="G12:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4E6A75-6040-406C-8E1B-B875E549B226}">
+  <dimension ref="A1:W45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="5" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="O1">
+        <v>8</v>
+      </c>
+      <c r="P1">
+        <v>9</v>
+      </c>
+      <c r="Q1">
+        <v>10</v>
+      </c>
+      <c r="R1">
+        <v>11</v>
+      </c>
+      <c r="S1">
+        <v>12</v>
+      </c>
+      <c r="T1">
+        <v>13</v>
+      </c>
+      <c r="U1">
+        <v>14</v>
+      </c>
+      <c r="V1">
+        <v>15</v>
+      </c>
+      <c r="W1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>29</v>
+      </c>
+      <c r="R2">
+        <v>947</v>
+      </c>
+      <c r="S2">
+        <v>953</v>
+      </c>
+      <c r="T2">
+        <v>967</v>
+      </c>
+      <c r="U2">
+        <v>971</v>
+      </c>
+      <c r="V2">
+        <v>977</v>
+      </c>
+      <c r="W2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <v>53</v>
+      </c>
+      <c r="N3">
+        <v>59</v>
+      </c>
+      <c r="O3">
+        <v>61</v>
+      </c>
+      <c r="P3">
+        <v>67</v>
+      </c>
+      <c r="Q3">
+        <v>71</v>
+      </c>
+      <c r="R3">
+        <v>991</v>
+      </c>
+      <c r="S3">
+        <v>997</v>
+      </c>
+      <c r="T3">
+        <v>1009</v>
+      </c>
+      <c r="U3">
+        <v>1013</v>
+      </c>
+      <c r="V3">
+        <v>1019</v>
+      </c>
+      <c r="W3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>83</v>
+      </c>
+      <c r="K4">
+        <v>89</v>
+      </c>
+      <c r="L4">
+        <v>97</v>
+      </c>
+      <c r="M4">
+        <v>101</v>
+      </c>
+      <c r="N4">
+        <v>103</v>
+      </c>
+      <c r="O4">
+        <v>107</v>
+      </c>
+      <c r="P4">
+        <v>109</v>
+      </c>
+      <c r="Q4">
+        <v>113</v>
+      </c>
+      <c r="R4">
+        <v>1031</v>
+      </c>
+      <c r="S4">
+        <v>1033</v>
+      </c>
+      <c r="T4">
+        <v>1039</v>
+      </c>
+      <c r="U4">
+        <v>1049</v>
+      </c>
+      <c r="V4">
+        <v>1051</v>
+      </c>
+      <c r="W4">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>127</v>
+      </c>
+      <c r="I5">
+        <v>131</v>
+      </c>
+      <c r="J5">
+        <v>137</v>
+      </c>
+      <c r="K5">
+        <v>139</v>
+      </c>
+      <c r="L5">
+        <v>149</v>
+      </c>
+      <c r="M5">
+        <v>151</v>
+      </c>
+      <c r="N5">
+        <v>157</v>
+      </c>
+      <c r="O5">
+        <v>163</v>
+      </c>
+      <c r="P5">
+        <v>167</v>
+      </c>
+      <c r="Q5">
+        <v>173</v>
+      </c>
+      <c r="R5">
+        <v>1993</v>
+      </c>
+      <c r="S5">
+        <v>1997</v>
+      </c>
+      <c r="T5">
+        <v>1999</v>
+      </c>
+      <c r="U5">
+        <v>2003</v>
+      </c>
+      <c r="V5">
+        <v>2011</v>
+      </c>
+      <c r="W5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>CODE(MID(Interest!C$14,A6,1))</f>
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>MOD(B6,16)</f>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>MOD((B6-C6)/16,16)</f>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
+        <v>251</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>179</v>
+      </c>
+      <c r="I6">
+        <v>181</v>
+      </c>
+      <c r="J6">
+        <v>191</v>
+      </c>
+      <c r="K6">
+        <v>193</v>
+      </c>
+      <c r="L6">
+        <v>197</v>
+      </c>
+      <c r="M6">
+        <v>199</v>
+      </c>
+      <c r="N6">
+        <v>211</v>
+      </c>
+      <c r="O6">
+        <v>223</v>
+      </c>
+      <c r="P6">
+        <v>227</v>
+      </c>
+      <c r="Q6">
+        <v>229</v>
+      </c>
+      <c r="R6">
+        <v>2063</v>
+      </c>
+      <c r="S6">
+        <v>2069</v>
+      </c>
+      <c r="T6">
+        <v>2081</v>
+      </c>
+      <c r="U6">
+        <v>2083</v>
+      </c>
+      <c r="V6">
+        <v>2087</v>
+      </c>
+      <c r="W6">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>CODE(MID(Interest!C$14,A7,1))</f>
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
+        <v>211</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>233</v>
+      </c>
+      <c r="I7">
+        <v>239</v>
+      </c>
+      <c r="J7">
+        <v>241</v>
+      </c>
+      <c r="K7">
+        <v>251</v>
+      </c>
+      <c r="L7">
+        <v>257</v>
+      </c>
+      <c r="M7">
+        <v>263</v>
+      </c>
+      <c r="N7">
+        <v>269</v>
+      </c>
+      <c r="O7">
+        <v>271</v>
+      </c>
+      <c r="P7">
+        <v>277</v>
+      </c>
+      <c r="Q7">
+        <v>281</v>
+      </c>
+      <c r="R7">
+        <v>2131</v>
+      </c>
+      <c r="S7">
+        <v>2137</v>
+      </c>
+      <c r="T7">
+        <v>2141</v>
+      </c>
+      <c r="U7">
+        <v>2143</v>
+      </c>
+      <c r="V7">
+        <v>2153</v>
+      </c>
+      <c r="W7">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f>CODE(MID(Interest!C$14,A8,1))</f>
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>641</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>283</v>
+      </c>
+      <c r="I8">
+        <v>293</v>
+      </c>
+      <c r="J8">
+        <v>307</v>
+      </c>
+      <c r="K8">
+        <v>311</v>
+      </c>
+      <c r="L8">
+        <v>313</v>
+      </c>
+      <c r="M8">
+        <v>317</v>
+      </c>
+      <c r="N8">
+        <v>331</v>
+      </c>
+      <c r="O8">
+        <v>337</v>
+      </c>
+      <c r="P8">
+        <v>347</v>
+      </c>
+      <c r="Q8">
+        <v>349</v>
+      </c>
+      <c r="R8">
+        <v>2221</v>
+      </c>
+      <c r="S8">
+        <v>2237</v>
+      </c>
+      <c r="T8">
+        <v>2239</v>
+      </c>
+      <c r="U8">
+        <v>2243</v>
+      </c>
+      <c r="V8">
+        <v>2251</v>
+      </c>
+      <c r="W8">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>CODE(MID(Interest!C$14,A9,1))</f>
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>641</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>353</v>
+      </c>
+      <c r="I9">
+        <v>359</v>
+      </c>
+      <c r="J9">
+        <v>367</v>
+      </c>
+      <c r="K9">
+        <v>373</v>
+      </c>
+      <c r="L9">
+        <v>379</v>
+      </c>
+      <c r="M9">
+        <v>383</v>
+      </c>
+      <c r="N9">
+        <v>389</v>
+      </c>
+      <c r="O9">
+        <v>397</v>
+      </c>
+      <c r="P9">
+        <v>401</v>
+      </c>
+      <c r="Q9">
+        <v>409</v>
+      </c>
+      <c r="R9">
+        <v>2293</v>
+      </c>
+      <c r="S9">
+        <v>2297</v>
+      </c>
+      <c r="T9">
+        <v>2309</v>
+      </c>
+      <c r="U9">
+        <v>2311</v>
+      </c>
+      <c r="V9">
+        <v>2333</v>
+      </c>
+      <c r="W9">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>CODE(MID(Interest!C$14,A10,1))</f>
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>419</v>
+      </c>
+      <c r="I10">
+        <v>421</v>
+      </c>
+      <c r="J10">
+        <v>431</v>
+      </c>
+      <c r="K10">
+        <v>433</v>
+      </c>
+      <c r="L10">
+        <v>439</v>
+      </c>
+      <c r="M10">
+        <v>443</v>
+      </c>
+      <c r="N10">
+        <v>449</v>
+      </c>
+      <c r="O10">
+        <v>457</v>
+      </c>
+      <c r="P10">
+        <v>461</v>
+      </c>
+      <c r="Q10">
+        <v>463</v>
+      </c>
+      <c r="R10">
+        <v>2371</v>
+      </c>
+      <c r="S10">
+        <v>2377</v>
+      </c>
+      <c r="T10">
+        <v>2381</v>
+      </c>
+      <c r="U10">
+        <v>2383</v>
+      </c>
+      <c r="V10">
+        <v>2389</v>
+      </c>
+      <c r="W10">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
+        <v>26562</v>
+      </c>
+      <c r="F11">
+        <v>1103515245</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>467</v>
+      </c>
+      <c r="I11">
+        <v>479</v>
+      </c>
+      <c r="J11">
+        <v>487</v>
+      </c>
+      <c r="K11">
+        <v>491</v>
+      </c>
+      <c r="L11">
+        <v>499</v>
+      </c>
+      <c r="M11">
+        <v>503</v>
+      </c>
+      <c r="N11">
+        <v>509</v>
+      </c>
+      <c r="O11">
+        <v>521</v>
+      </c>
+      <c r="P11">
+        <v>523</v>
+      </c>
+      <c r="Q11">
+        <v>541</v>
+      </c>
+      <c r="R11">
+        <v>2437</v>
+      </c>
+      <c r="S11">
+        <v>2441</v>
+      </c>
+      <c r="T11">
+        <v>2447</v>
+      </c>
+      <c r="U11">
+        <v>2459</v>
+      </c>
+      <c r="V11">
+        <v>2467</v>
+      </c>
+      <c r="W11">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <f ca="1">MOD(B11*F11+F12,F13)</f>
+        <v>31187</v>
+      </c>
+      <c r="C12">
+        <f ca="1">MOD(B12,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f ca="1">B12/F$13</f>
+        <v>0.951751708984375</v>
+      </c>
+      <c r="E12">
+        <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>12345</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>547</v>
+      </c>
+      <c r="I12">
+        <v>557</v>
+      </c>
+      <c r="J12">
+        <v>563</v>
+      </c>
+      <c r="K12">
+        <v>569</v>
+      </c>
+      <c r="L12">
+        <v>571</v>
+      </c>
+      <c r="M12">
+        <v>577</v>
+      </c>
+      <c r="N12">
+        <v>587</v>
+      </c>
+      <c r="O12">
+        <v>593</v>
+      </c>
+      <c r="P12">
+        <v>599</v>
+      </c>
+      <c r="Q12">
+        <v>601</v>
+      </c>
+      <c r="R12">
+        <v>2539</v>
+      </c>
+      <c r="S12">
+        <v>2543</v>
+      </c>
+      <c r="T12">
+        <v>2549</v>
+      </c>
+      <c r="U12">
+        <v>2551</v>
+      </c>
+      <c r="V12">
+        <v>2557</v>
+      </c>
+      <c r="W12">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="51">
+        <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
+        <v>22800</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D33" ca="1" si="5">B13/F$13</f>
+        <v>0.69580078125</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>32768</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>607</v>
+      </c>
+      <c r="I13">
+        <v>613</v>
+      </c>
+      <c r="J13">
+        <v>617</v>
+      </c>
+      <c r="K13">
+        <v>619</v>
+      </c>
+      <c r="L13">
+        <v>631</v>
+      </c>
+      <c r="M13">
+        <v>641</v>
+      </c>
+      <c r="N13">
+        <v>643</v>
+      </c>
+      <c r="O13">
+        <v>647</v>
+      </c>
+      <c r="P13">
+        <v>653</v>
+      </c>
+      <c r="Q13">
+        <v>659</v>
+      </c>
+      <c r="R13">
+        <v>2621</v>
+      </c>
+      <c r="S13">
+        <v>2633</v>
+      </c>
+      <c r="T13">
+        <v>2647</v>
+      </c>
+      <c r="U13">
+        <v>2657</v>
+      </c>
+      <c r="V13">
+        <v>2659</v>
+      </c>
+      <c r="W13">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>31753</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.969024658203125</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>661</v>
+      </c>
+      <c r="I14">
+        <v>673</v>
+      </c>
+      <c r="J14">
+        <v>677</v>
+      </c>
+      <c r="K14">
+        <v>683</v>
+      </c>
+      <c r="L14">
+        <v>691</v>
+      </c>
+      <c r="M14">
+        <v>701</v>
+      </c>
+      <c r="N14">
+        <v>709</v>
+      </c>
+      <c r="O14">
+        <v>719</v>
+      </c>
+      <c r="P14">
+        <v>727</v>
+      </c>
+      <c r="Q14">
+        <v>733</v>
+      </c>
+      <c r="R14">
+        <v>2689</v>
+      </c>
+      <c r="S14">
+        <v>2693</v>
+      </c>
+      <c r="T14">
+        <v>2699</v>
+      </c>
+      <c r="U14">
+        <v>2707</v>
+      </c>
+      <c r="V14">
+        <v>2711</v>
+      </c>
+      <c r="W14">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>15886</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48480224609375</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>739</v>
+      </c>
+      <c r="I15">
+        <v>743</v>
+      </c>
+      <c r="J15">
+        <v>751</v>
+      </c>
+      <c r="K15">
+        <v>757</v>
+      </c>
+      <c r="L15">
+        <v>761</v>
+      </c>
+      <c r="M15">
+        <v>769</v>
+      </c>
+      <c r="N15">
+        <v>773</v>
+      </c>
+      <c r="O15">
+        <v>787</v>
+      </c>
+      <c r="P15">
+        <v>797</v>
+      </c>
+      <c r="Q15">
+        <v>809</v>
+      </c>
+      <c r="R15">
+        <v>2749</v>
+      </c>
+      <c r="S15">
+        <v>2753</v>
+      </c>
+      <c r="T15">
+        <v>2767</v>
+      </c>
+      <c r="U15">
+        <v>2777</v>
+      </c>
+      <c r="V15">
+        <v>2789</v>
+      </c>
+      <c r="W15">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>24623</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.751434326171875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>811</v>
+      </c>
+      <c r="I16">
+        <v>821</v>
+      </c>
+      <c r="J16">
+        <v>823</v>
+      </c>
+      <c r="K16">
+        <v>827</v>
+      </c>
+      <c r="L16">
+        <v>829</v>
+      </c>
+      <c r="M16">
+        <v>839</v>
+      </c>
+      <c r="N16">
+        <v>853</v>
+      </c>
+      <c r="O16">
+        <v>857</v>
+      </c>
+      <c r="P16">
+        <v>859</v>
+      </c>
+      <c r="Q16">
+        <v>863</v>
+      </c>
+      <c r="R16">
+        <v>2833</v>
+      </c>
+      <c r="S16">
+        <v>2837</v>
+      </c>
+      <c r="T16">
+        <v>2843</v>
+      </c>
+      <c r="U16">
+        <v>2851</v>
+      </c>
+      <c r="V16">
+        <v>2857</v>
+      </c>
+      <c r="W16">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>30268</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.9237060546875</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>877</v>
+      </c>
+      <c r="I17">
+        <v>881</v>
+      </c>
+      <c r="J17">
+        <v>883</v>
+      </c>
+      <c r="K17">
+        <v>887</v>
+      </c>
+      <c r="L17">
+        <v>907</v>
+      </c>
+      <c r="M17">
+        <v>911</v>
+      </c>
+      <c r="N17">
+        <v>919</v>
+      </c>
+      <c r="O17">
+        <v>929</v>
+      </c>
+      <c r="P17">
+        <v>937</v>
+      </c>
+      <c r="Q17">
+        <v>941</v>
+      </c>
+      <c r="R17">
+        <v>2909</v>
+      </c>
+      <c r="S17">
+        <v>2917</v>
+      </c>
+      <c r="T17">
+        <v>2927</v>
+      </c>
+      <c r="U17">
+        <v>2939</v>
+      </c>
+      <c r="V17">
+        <v>2953</v>
+      </c>
+      <c r="W17">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>20421</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.623199462890625</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>11546</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.35235595703125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>20555</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.627288818359375</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>14888</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.454345703125</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>9025</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.275421142578125</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="51"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.01904296875E-3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="51"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>9767</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.298065185546875</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="51"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>20692</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.6314697265625</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="51"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>12925</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.394439697265625</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="51"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>17778</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.54254150390625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M27" s="51"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>32195</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.982513427734375</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M28" s="51"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>9792</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.298828125</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="51"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>31097</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.949005126953125</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="51"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>18110</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.55267333984375</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="51"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>13087</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.399383544921875</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="51"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="51">
+        <f t="shared" ca="1" si="3"/>
+        <v>26220</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.8001708984375</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M33" s="51"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="M34" s="51"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="M35" s="51"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="M38" s="51"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="M41" s="51"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="M44" s="51"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="M45" s="51"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}">
+      <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="10_ncr:80_{D05394CE-6BE2-4CBA-9938-D304B64A0FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55582A18-81D4-4991-A1C1-18449555D399}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{369E1462-62EC-41B4-8C82-D8F0964F6AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1332" windowWidth="22344" windowHeight="11628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="110" yWindow="26" windowWidth="1862" windowHeight="969" tabRatio="500" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="58" yWindow="111" windowWidth="1862" windowHeight="969" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -874,10 +874,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -986,6 +982,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2117,6 +2117,27 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7639928-BEDD-4808-AE9F-8753A44600E6}">
+  <header guid="{B7639928-BEDD-4808-AE9F-8753A44600E6}" dateTime="2020-11-19T14:00:18" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{B7639928-BEDD-4808-AE9F-8753A44600E6}" name="Richard Ketchersid" id="-1739526094" dateTime="2020-11-19T14:00:18"/>
+</users>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2382,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2401,34 +2422,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.2" thickBot="1"/>
     <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="16.2" thickTop="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="I3" s="54" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="I3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="55"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2437,12 +2458,12 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2451,12 +2472,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" thickBot="1">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
@@ -2465,14 +2486,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" thickBot="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
@@ -2481,14 +2502,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.2" customHeight="1" thickBot="1">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2497,20 +2518,20 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.2" thickTop="1">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="B11" s="20"/>
@@ -2529,42 +2550,42 @@
         <v>26</v>
       </c>
       <c r="E12" s="48"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="77" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="78"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="48"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="41"/>
       <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="16.2" thickBot="1">
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="31.2">
       <c r="A16" s="13" t="s">
@@ -2616,7 +2637,7 @@
       <c r="A18" s="48">
         <v>600</v>
       </c>
-      <c r="B18" s="49" t="str">
+      <c r="B18" s="84" t="str">
         <f>IF(C14="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
         <v>Fill C14</v>
       </c>
@@ -2876,10 +2897,10 @@
       <c r="F44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QoS5bMTgt1giztW+3cm/4Evo8F2eUYfvsIr/XXSJm8TJCN+RwEWPmX3d5RUqhevnMKg1FU3aSQA26tvMdJlx5Q==" saltValue="psu2jzljY5jsulJF4hlQWQ==" spinCount="100000" sheet="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2A/rww8Nqv4fK2TlQVl65mtizyEtTrhoBgoSzfI0L61rev8ObAQvBrmKe9v54Be415tIbuhAPt3rUgjGXM0kEQ==" saltValue="5kSmu5Ey9AYQWjMTHx1V6A==" spinCount="100000" sheet="1" formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130" topLeftCell="A13">
-      <selection activeCell="G12" sqref="G12:H13"/>
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130" topLeftCell="A16">
+      <selection activeCell="D18" sqref="D18:D24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -3678,7 +3699,7 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="50">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>22800</v>
       </c>
@@ -3753,7 +3774,7 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>31753</v>
       </c>
@@ -3825,7 +3846,7 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>15886</v>
       </c>
@@ -3897,7 +3918,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>24623</v>
       </c>
@@ -3969,7 +3990,7 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>30268</v>
       </c>
@@ -4041,7 +4062,7 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>20421</v>
       </c>
@@ -4062,7 +4083,7 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>11546</v>
       </c>
@@ -4083,7 +4104,7 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>20555</v>
       </c>
@@ -4104,7 +4125,7 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>14888</v>
       </c>
@@ -4125,7 +4146,7 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>9025</v>
       </c>
@@ -4141,13 +4162,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="50"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>230</v>
       </c>
@@ -4163,13 +4184,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>9767</v>
       </c>
@@ -4185,13 +4206,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="50"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>20692</v>
       </c>
@@ -4207,13 +4228,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="50"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>12925</v>
       </c>
@@ -4229,13 +4250,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>17778</v>
       </c>
@@ -4251,13 +4272,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M27" s="51"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>32195</v>
       </c>
@@ -4273,13 +4294,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M28" s="51"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>9792</v>
       </c>
@@ -4295,13 +4316,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>31097</v>
       </c>
@@ -4317,13 +4338,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="50"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>18110</v>
       </c>
@@ -4339,13 +4360,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>13087</v>
       </c>
@@ -4361,13 +4382,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="50">
         <f t="shared" ca="1" si="3"/>
         <v>26220</v>
       </c>
@@ -4383,48 +4404,48 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M33" s="51"/>
+      <c r="M33" s="50"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="M34" s="51"/>
+      <c r="M34" s="50"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="M35" s="51"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="M36" s="51"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="M37" s="51"/>
+      <c r="M37" s="50"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="M38" s="51"/>
+      <c r="M38" s="50"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="M39" s="51"/>
+      <c r="M39" s="50"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="M40" s="51"/>
+      <c r="M40" s="50"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="M41" s="51"/>
+      <c r="M41" s="50"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="M42" s="51"/>
+      <c r="M42" s="50"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="M43" s="51"/>
+      <c r="M43" s="50"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="M44" s="51"/>
+      <c r="M44" s="50"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="M45" s="51"/>
+      <c r="M45" s="50"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" state="hidden">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{369E1462-62EC-41B4-8C82-D8F0964F6AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D78134CF-462D-4761-A59E-D31682984C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1332" windowWidth="22344" windowHeight="11628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1770" windowWidth="18495" windowHeight="12135" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="58" yWindow="111" windowWidth="1862" windowHeight="969" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="125" yWindow="118" windowWidth="1233" windowHeight="809" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -880,6 +880,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,10 +986,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2118,8 +2118,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7639928-BEDD-4808-AE9F-8753A44600E6}">
-  <header guid="{B7639928-BEDD-4808-AE9F-8753A44600E6}" dateTime="2020-11-19T14:00:18" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DB5440D0-A051-4811-92CB-C036140F7CB4}">
+  <header guid="{DB5440D0-A051-4811-92CB-C036140F7CB4}" dateTime="2021-02-16T14:55:17" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2134,7 +2134,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B7639928-BEDD-4808-AE9F-8753A44600E6}" name="Richard Ketchersid" id="-1739526094" dateTime="2020-11-19T14:00:18"/>
+  <userInfo guid="{DB5440D0-A051-4811-92CB-C036140F7CB4}" name="Richard Ketchersid" id="-1739581801" dateTime="2021-02-16T14:55:17"/>
 </users>
 </file>
 
@@ -2403,53 +2403,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
       <selection activeCell="D18" sqref="D18:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-    <col min="9" max="9" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1"/>
+    <row r="1" spans="1:10" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.2" thickTop="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="I3" s="53" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2458,12 +2458,12 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2471,13 +2471,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
+    <row r="6" spans="1:10" ht="16.5" thickBot="1">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
@@ -2485,15 +2485,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1">
-      <c r="B7" s="73" t="s">
+    <row r="7" spans="1:10" ht="16.5" thickBot="1">
+      <c r="B7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
@@ -2501,15 +2501,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.2" customHeight="1" thickBot="1">
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="1:10" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="B8" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2517,23 +2517,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.2" thickTop="1">
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1">
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2551,43 +2551,43 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1">
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="49"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A14" s="80" t="s">
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A14" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="41"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="1:10" ht="16.2" thickBot="1">
-      <c r="D15" s="51" t="s">
+    <row r="15" spans="1:10" ht="16.5" thickBot="1">
+      <c r="D15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="31.2">
+      <c r="G15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="31.5">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="16.2" thickBot="1">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="16.5" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="A18" s="48">
         <v>600</v>
       </c>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="51" t="str">
         <f>IF(C14="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
         <v>Fill C14</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" ht="16.2" thickBot="1">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1">
       <c r="C24" s="1">
         <v>10</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" ht="16.2" thickBot="1">
+    <row r="31" spans="1:7" ht="16.5" thickBot="1">
       <c r="C31" s="1">
         <v>60</v>
       </c>
@@ -2899,7 +2899,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2A/rww8Nqv4fK2TlQVl65mtizyEtTrhoBgoSzfI0L61rev8ObAQvBrmKe9v54Be415tIbuhAPt3rUgjGXM0kEQ==" saltValue="5kSmu5Ey9AYQWjMTHx1V6A==" spinCount="100000" sheet="1" formatCells="0"/>
   <customSheetViews>
-    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130" topLeftCell="A16">
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
       <selection activeCell="D18" sqref="D18:D24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2930,9 +2930,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D78134CF-462D-4761-A59E-D31682984C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{0F4B4F57-F881-4977-BBA3-CEBDDBE2E875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1770" windowWidth="18495" windowHeight="12135" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1416" windowWidth="19728" windowHeight="9912" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="125" yWindow="118" windowWidth="1233" windowHeight="809" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="125" yWindow="118" windowWidth="1644" windowHeight="826" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Principal</t>
   </si>
@@ -114,11 +114,6 @@
     <t xml:space="preserve">r </t>
   </si>
   <si>
-    <t>- In E18 write the Excel formula for P +  P⋅r⋅t (simple interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
-- In G18 write the Excel formula for P⋅(1 + r)^t (compound interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
-- In F18 write the Excel formula for I = FV - P. Again, add necessary "$" signs to your cell references.</t>
-  </si>
-  <si>
     <t>simple interest</t>
   </si>
   <si>
@@ -131,12 +126,6 @@
     <t>FV</t>
   </si>
   <si>
-    <t>Fill out the table without entering any additional formulas.</t>
-  </si>
-  <si>
-    <t>Experiment with different values of P until the value after 10 years is at least $10,000. Find the least such value of P in whole dollars for simple interest and compound interest. What value did you use?  Answer below.</t>
-  </si>
-  <si>
     <t>Copy the exact FV for each case and paste here as a value.</t>
   </si>
   <si>
@@ -209,10 +198,30 @@
     <t>Rand22</t>
   </si>
   <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
     <t>Full Name (5 letters)</t>
+  </si>
+  <si>
+    <t>- In C18 enter your name and the data will generate.</t>
+  </si>
+  <si>
+    <t>Experiment with different values of P until the value after 10 years is at least $10,000. Find the least such value of P in whole dollars for simple interest and compound interest. What value did you use?  Answer below in E16:E17 and enter the FV in F16:F17.</t>
+  </si>
+  <si>
+    <t>Comment on what you notice comparing simple and compound interest. (Box Below)</t>
+  </si>
+  <si>
+    <t>Comment on what you notice here.</t>
+  </si>
+  <si>
+    <t>- In E22 write the Excel formula for P +  P⋅r⋅t (simple interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
+- In G22 write the Excel formula for P⋅(1 + r)^t (compound interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
+- In F22 and D22 write the Excel formula for I = FV - P. Again, add necessary "$" signs to your cell references.</t>
+  </si>
+  <si>
+    <t>Fill out the table without entering any additional formulas. (One double click will do it!)</t>
+  </si>
+  <si>
+    <t>Enter Name =&gt;</t>
   </si>
 </sst>
 </file>
@@ -223,7 +232,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,8 +260,16 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +722,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,18 +842,6 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -880,10 +879,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,11 +974,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1099,7 +1145,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Interest!$D$17</c:f>
+              <c:f>Interest!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1122,7 +1168,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Interest!$C$18:$C$31</c:f>
+              <c:f>Interest!$C$22:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1173,31 +1219,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Interest!$D$18:$D$31</c:f>
+              <c:f>Interest!$D$22:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1213,7 +1238,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Interest!$F$17</c:f>
+              <c:f>Interest!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1236,7 +1261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Interest!$C$18:$C$31</c:f>
+              <c:f>Interest!$C$22:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1287,7 +1312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Interest!$F$18:$F$31</c:f>
+              <c:f>Interest!$F$22:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2082,13 +2107,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>82062</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>11719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2118,8 +2143,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DB5440D0-A051-4811-92CB-C036140F7CB4}">
-  <header guid="{DB5440D0-A051-4811-92CB-C036140F7CB4}" dateTime="2021-02-16T14:55:17" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B030E21-28A4-4DF6-9291-D76FAE8B7EAA}">
+  <header guid="{0B030E21-28A4-4DF6-9291-D76FAE8B7EAA}" dateTime="2021-02-24T11:54:29" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2134,7 +2159,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{DB5440D0-A051-4811-92CB-C036140F7CB4}" name="Richard Ketchersid" id="-1739581801" dateTime="2021-02-16T14:55:17"/>
+  <userInfo guid="{0B030E21-28A4-4DF6-9291-D76FAE8B7EAA}" name="Richard Ketchersid" id="-1739581216" dateTime="2021-02-24T11:54:29"/>
 </users>
 </file>
 
@@ -2401,55 +2426,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D24"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="I3" s="54" t="s">
+    <row r="1" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B1" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="2:10" ht="33" customHeight="1" thickBot="1">
+      <c r="B2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.2" thickTop="1">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="I3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2457,13 +2491,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+    <row r="5" spans="2:10">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2471,13 +2505,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+    <row r="6" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
@@ -2485,15 +2519,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickBot="1">
-      <c r="B7" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+    <row r="7" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B7" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
@@ -2501,15 +2535,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B8" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
+    <row r="8" spans="2:10" ht="16.2" customHeight="1" thickBot="1">
+      <c r="B8" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2517,314 +2551,297 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="14" t="s">
+    <row r="9" spans="2:10" ht="16.2" thickTop="1">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B11" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B12" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B13" s="84"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="85"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.2" thickBot="1">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" s="3" t="s">
+      <c r="H16" s="73"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" thickBot="1">
+      <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A14" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickBot="1">
-      <c r="D15" s="52" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A18" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" thickBot="1">
+      <c r="D19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53" t="s">
+      <c r="E19" s="47"/>
+      <c r="F19" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="31.5">
-      <c r="A16" s="13" t="s">
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" s="15" customFormat="1" ht="31.2">
+      <c r="A20" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G20" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A17" s="13" t="s">
+    <row r="21" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="48">
+    <row r="22" spans="1:8">
+      <c r="A22" s="44">
         <v>600</v>
       </c>
-      <c r="B18" s="51" t="str">
-        <f>IF(C14="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
+      <c r="B22" s="93" t="str">
+        <f>IF(C18="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
         <v>Fill C14</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="37" t="str">
-        <f>IF(C$14="Full Name (5 letters)", "Fill C14",A$18*B$18*C18)</f>
-        <v>Fill C14</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="C19" s="1">
-        <f>C18+1</f>
+      <c r="D22" s="95"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="1">
+        <f>C22+1</f>
         <v>1</v>
       </c>
-      <c r="D19" s="38" t="str">
-        <f t="shared" ref="D19:D24" si="0">IF(C$14="Full Name (5 letters)", "Fill C14",A$18*B$18*C19)</f>
-        <v>Fill C14</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="C20" s="1">
-        <f t="shared" ref="C20:C23" si="1">C19+1</f>
+      <c r="D23" s="94"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C27" si="0">C23+1</f>
         <v>2</v>
       </c>
-      <c r="D20" s="39" t="str">
+      <c r="D24" s="25"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>Fill C14</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="C21" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D21" s="39" t="str">
+      <c r="D25" s="25"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>Fill C14</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D22" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>Fill C14</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C23" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D23" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>Fill C14</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1">
-      <c r="C24" s="1">
-        <v>10</v>
-      </c>
-      <c r="D24" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>Fill C14</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="1">
-        <v>15</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
       <c r="D26" s="25"/>
-      <c r="E26" s="44"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="C27" s="1">
-        <v>25</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="94"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" thickBot="1">
       <c r="C28" s="1">
-        <v>30</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" s="1">
-        <v>40</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="C30" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D30" s="25"/>
-      <c r="E30" s="44"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1">
+    <row r="31" spans="1:8">
       <c r="C31" s="1">
+        <v>25</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="C33" s="1">
+        <v>40</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="1">
+        <v>50</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.2" thickBot="1">
+      <c r="C35" s="1">
         <v>60</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D35" s="34"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2832,7 +2849,7 @@
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2840,7 +2857,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2848,7 +2865,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2856,7 +2873,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2864,7 +2881,7 @@
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2872,7 +2889,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2880,7 +2897,7 @@
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2888,7 +2905,7 @@
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2896,25 +2913,60 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
+    <row r="45" spans="1:7">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2A/rww8Nqv4fK2TlQVl65mtizyEtTrhoBgoSzfI0L61rev8ObAQvBrmKe9v54Be415tIbuhAPt3rUgjGXM0kEQ==" saltValue="5kSmu5Ey9AYQWjMTHx1V6A==" spinCount="100000" sheet="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ElUect0Vop7+JY0SPzDHIvBVLjTWBy0CIND9Q1Mg/tvKdC8iVEukcAlYFHFcYNVhymyiMwXi+B0ui+e/1a8wYA==" saltValue="paGEOR0rz4aBbO/VCLVF7Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
-      <selection activeCell="D18" sqref="D18:D24"/>
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="9">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B2:G6"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2930,9 +2982,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="5" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3202,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f>CODE(MID(Interest!C$14,A6,1))</f>
+        <f>CODE(MID(Interest!C$18,A6,1))</f>
         <v>70</v>
       </c>
       <c r="C6">
@@ -3274,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <f>CODE(MID(Interest!C$14,A7,1))</f>
+        <f>CODE(MID(Interest!C$18,A7,1))</f>
         <v>117</v>
       </c>
       <c r="C7">
@@ -3346,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>CODE(MID(Interest!C$14,A8,1))</f>
+        <f>CODE(MID(Interest!C$18,A8,1))</f>
         <v>108</v>
       </c>
       <c r="C8">
@@ -3418,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>CODE(MID(Interest!C$14,A9,1))</f>
+        <f>CODE(MID(Interest!C$18,A9,1))</f>
         <v>108</v>
       </c>
       <c r="C9">
@@ -3490,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <f>CODE(MID(Interest!C$14,A10,1))</f>
+        <f>CODE(MID(Interest!C$18,A10,1))</f>
         <v>32</v>
       </c>
       <c r="C10">
@@ -3559,7 +3611,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
@@ -3622,7 +3674,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*F11+F12,F13)</f>
@@ -3697,9 +3749,9 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="50">
+        <v>32</v>
+      </c>
+      <c r="B13" s="46">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>22800</v>
       </c>
@@ -3772,9 +3824,9 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="50">
+        <v>33</v>
+      </c>
+      <c r="B14" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>31753</v>
       </c>
@@ -3844,9 +3896,9 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="50">
+        <v>34</v>
+      </c>
+      <c r="B15" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>15886</v>
       </c>
@@ -3916,9 +3968,9 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="50">
+        <v>35</v>
+      </c>
+      <c r="B16" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>24623</v>
       </c>
@@ -3988,9 +4040,9 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="50">
+        <v>36</v>
+      </c>
+      <c r="B17" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>30268</v>
       </c>
@@ -4060,9 +4112,9 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="50">
+        <v>37</v>
+      </c>
+      <c r="B18" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>20421</v>
       </c>
@@ -4081,9 +4133,9 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="50">
+        <v>38</v>
+      </c>
+      <c r="B19" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>11546</v>
       </c>
@@ -4102,9 +4154,9 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="50">
+        <v>39</v>
+      </c>
+      <c r="B20" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>20555</v>
       </c>
@@ -4123,9 +4175,9 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="50">
+        <v>40</v>
+      </c>
+      <c r="B21" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>14888</v>
       </c>
@@ -4144,9 +4196,9 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="50">
+        <v>41</v>
+      </c>
+      <c r="B22" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>9025</v>
       </c>
@@ -4162,13 +4214,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M22" s="50"/>
+      <c r="M22" s="46"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="50">
+        <v>42</v>
+      </c>
+      <c r="B23" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>230</v>
       </c>
@@ -4184,13 +4236,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M23" s="50"/>
+      <c r="M23" s="46"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="50">
+        <v>43</v>
+      </c>
+      <c r="B24" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>9767</v>
       </c>
@@ -4206,13 +4258,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M24" s="50"/>
+      <c r="M24" s="46"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="50">
+        <v>44</v>
+      </c>
+      <c r="B25" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>20692</v>
       </c>
@@ -4228,13 +4280,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M25" s="50"/>
+      <c r="M25" s="46"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="50">
+        <v>45</v>
+      </c>
+      <c r="B26" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>12925</v>
       </c>
@@ -4250,13 +4302,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M26" s="50"/>
+      <c r="M26" s="46"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="50">
+        <v>46</v>
+      </c>
+      <c r="B27" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>17778</v>
       </c>
@@ -4272,13 +4324,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M27" s="50"/>
+      <c r="M27" s="46"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="50">
+        <v>47</v>
+      </c>
+      <c r="B28" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>32195</v>
       </c>
@@ -4294,13 +4346,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M28" s="50"/>
+      <c r="M28" s="46"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="50">
+        <v>48</v>
+      </c>
+      <c r="B29" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>9792</v>
       </c>
@@ -4316,13 +4368,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M29" s="50"/>
+      <c r="M29" s="46"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="50">
+        <v>49</v>
+      </c>
+      <c r="B30" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>31097</v>
       </c>
@@ -4338,13 +4390,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M30" s="50"/>
+      <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="50">
+        <v>50</v>
+      </c>
+      <c r="B31" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>18110</v>
       </c>
@@ -4360,13 +4412,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M31" s="50"/>
+      <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="50">
+        <v>51</v>
+      </c>
+      <c r="B32" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>13087</v>
       </c>
@@ -4382,13 +4434,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="50"/>
+      <c r="M32" s="46"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="50">
+        <v>52</v>
+      </c>
+      <c r="B33" s="46">
         <f t="shared" ca="1" si="3"/>
         <v>26220</v>
       </c>
@@ -4404,43 +4456,43 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M33" s="50"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="M34" s="50"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="M35" s="50"/>
+      <c r="M35" s="46"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="M36" s="50"/>
+      <c r="M36" s="46"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="M37" s="50"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="M38" s="50"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="M39" s="50"/>
+      <c r="M39" s="46"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="M40" s="50"/>
+      <c r="M40" s="46"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="M41" s="50"/>
+      <c r="M41" s="46"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="M42" s="50"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="M43" s="50"/>
+      <c r="M43" s="46"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="M44" s="50"/>
+      <c r="M44" s="46"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="M45" s="50"/>
+      <c r="M45" s="46"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{0F4B4F57-F881-4977-BBA3-CEBDDBE2E875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C72C4D9D-10C1-4E39-8E78-9366BFAB2A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1416" windowWidth="19728" windowHeight="9912" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1770" windowWidth="24660" windowHeight="12390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Richard Ketchersid - Personal View" guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" mergeInterval="0" personalView="1" xWindow="125" yWindow="118" windowWidth="1644" windowHeight="826" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
@@ -879,148 +879,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1031,6 +889,157 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2143,8 +2152,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B030E21-28A4-4DF6-9291-D76FAE8B7EAA}">
-  <header guid="{0B030E21-28A4-4DF6-9291-D76FAE8B7EAA}" dateTime="2021-02-24T11:54:29" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F8BBFFC-FA88-4395-8E27-5738CCFC8BBD}">
+  <header guid="{0F8BBFFC-FA88-4395-8E27-5738CCFC8BBD}" dateTime="2021-02-26T19:59:37" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2159,7 +2168,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0B030E21-28A4-4DF6-9291-D76FAE8B7EAA}" name="Richard Ketchersid" id="-1739581216" dateTime="2021-02-24T11:54:29"/>
+  <userInfo guid="{0F8BBFFC-FA88-4395-8E27-5738CCFC8BBD}" name="Richard Ketchersid" id="-1739544836" dateTime="2021-02-26T19:59:37"/>
 </users>
 </file>
 
@@ -2429,7 +2438,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B12" sqref="B12:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2446,44 +2455,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="2:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="I3" s="49" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="I3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2492,12 +2501,12 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
       <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2506,12 +2515,12 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
@@ -2520,14 +2529,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
@@ -2536,14 +2545,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.2" customHeight="1" thickBot="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2552,56 +2561,56 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B13" s="84"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="85"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="15" spans="2:10" ht="16.2" thickBot="1">
       <c r="B15" s="20"/>
@@ -2621,10 +2630,10 @@
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="45"/>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="73"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="16.2" thickBot="1">
       <c r="D17" s="3" t="s">
@@ -2632,30 +2641,30 @@
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" thickBot="1">
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48" t="s">
+      <c r="E19" s="53"/>
+      <c r="F19" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="31.2">
       <c r="A20" s="13" t="s">
@@ -2707,14 +2716,14 @@
       <c r="A22" s="44">
         <v>600</v>
       </c>
-      <c r="B22" s="93" t="str">
+      <c r="B22" s="47" t="str">
         <f>IF(C18="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
         <v>Fill C14</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="95"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="39"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
@@ -2724,7 +2733,7 @@
         <f>C22+1</f>
         <v>1</v>
       </c>
-      <c r="D23" s="94"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="40"/>
       <c r="F23" s="23"/>
       <c r="G23" s="24"/>
@@ -2764,7 +2773,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D27" s="94"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="41"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
@@ -2946,10 +2955,10 @@
       <c r="F48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ElUect0Vop7+JY0SPzDHIvBVLjTWBy0CIND9Q1Mg/tvKdC8iVEukcAlYFHFcYNVhymyiMwXi+B0ui+e/1a8wYA==" saltValue="paGEOR0rz4aBbO/VCLVF7Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kmYIaoXYI0dR/rkwKwC4Kas9ZcZcxOdD12xrJR+CCxhL70KgTu4BdK17jHJv20hD2ICR6Fq8ZRXOzwmEnOWTYg==" saltValue="tTQOuVImTsST3xyQF0PaFA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B12" sqref="B12:G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C72C4D9D-10C1-4E39-8E78-9366BFAB2A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{3CFD9707-399D-4189-930C-B12ADA61F019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1770" windowWidth="24660" windowHeight="12390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Principal</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Enter Name =&gt;</t>
+  </si>
+  <si>
+    <t>Video for this DQ</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,6 +267,23 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,12 +737,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,9 +1063,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -2148,12 +2171,327 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>58614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20516</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Star: 5 Points 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE8C5EC-0290-4F78-A174-E8576D179F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7151078" y="2322633"/>
+          <a:ext cx="189034" cy="203689"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241789</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>430823</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Star: 5 Points 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30510D2B-F7F9-48C2-A950-9F75A33A72A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7561385" y="2645019"/>
+          <a:ext cx="189034" cy="203689"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548054</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>737088</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Star: 5 Points 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4806AC4-6C12-4C96-ACC9-1077459670C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="2291861"/>
+          <a:ext cx="189034" cy="203689"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71803</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Star: 5 Points 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9731100F-8C2E-4219-9984-9A3D339D24E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8367346" y="2234710"/>
+          <a:ext cx="189034" cy="203689"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33703</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Star: 5 Points 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BBF04D-5267-412C-BE9D-A062727133A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8329246" y="2672861"/>
+          <a:ext cx="189034" cy="203689"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F8BBFFC-FA88-4395-8E27-5738CCFC8BBD}">
-  <header guid="{0F8BBFFC-FA88-4395-8E27-5738CCFC8BBD}" dateTime="2021-02-26T19:59:37" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7C803D66-8A4D-4AE1-A40D-772006B3C469}">
+  <header guid="{7C803D66-8A4D-4AE1-A40D-772006B3C469}" dateTime="2021-03-18T08:50:12" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2168,7 +2506,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0F8BBFFC-FA88-4395-8E27-5738CCFC8BBD}" name="Richard Ketchersid" id="-1739544836" dateTime="2021-02-26T19:59:37"/>
+  <userInfo guid="{7C803D66-8A4D-4AE1-A40D-772006B3C469}" name="Richard Ketchersid" id="-1739524173" dateTime="2021-03-18T08:50:12"/>
 </users>
 </file>
 
@@ -2438,23 +2776,23 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.2" thickBot="1">
+    <row r="1" spans="2:10" ht="16.5" thickBot="1">
       <c r="B1" s="50" t="s">
         <v>54</v>
       </c>
@@ -2474,7 +2812,7 @@
       <c r="F2" s="58"/>
       <c r="G2" s="59"/>
     </row>
-    <row r="3" spans="2:10" ht="16.2" thickTop="1">
+    <row r="3" spans="2:10" ht="16.5" thickTop="1">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -2514,7 +2852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.2" thickBot="1">
+    <row r="6" spans="2:10" ht="16.5" thickBot="1">
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
@@ -2528,7 +2866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.2" thickBot="1">
+    <row r="7" spans="2:10" ht="16.5" thickBot="1">
       <c r="B7" s="75" t="s">
         <v>59</v>
       </c>
@@ -2544,7 +2882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="16.2" customHeight="1" thickBot="1">
+    <row r="8" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="B8" s="66" t="s">
         <v>55</v>
       </c>
@@ -2560,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="16.2" thickTop="1">
+    <row r="9" spans="2:10" ht="16.5" thickTop="1">
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -2595,6 +2933,9 @@
       <c r="E12" s="88"/>
       <c r="F12" s="88"/>
       <c r="G12" s="89"/>
+      <c r="I12" s="96" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="15.6" customHeight="1">
       <c r="B13" s="90"/>
@@ -2612,7 +2953,7 @@
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
     </row>
-    <row r="15" spans="2:10" ht="16.2" thickBot="1">
+    <row r="15" spans="2:10" ht="16.5" thickBot="1">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -2635,7 +2976,7 @@
       </c>
       <c r="H16" s="77"/>
     </row>
-    <row r="17" spans="1:8" ht="16.2" thickBot="1">
+    <row r="17" spans="1:8" ht="16.5" thickBot="1">
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
@@ -2644,7 +2985,7 @@
       <c r="G17" s="78"/>
       <c r="H17" s="79"/>
     </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1">
+    <row r="18" spans="1:8" ht="16.5" thickBot="1">
       <c r="A18" s="80" t="s">
         <v>60</v>
       </c>
@@ -2656,7 +2997,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1">
+    <row r="19" spans="1:8" ht="16.5" thickBot="1">
       <c r="D19" s="53" t="s">
         <v>5</v>
       </c>
@@ -2666,7 +3007,7 @@
       </c>
       <c r="G19" s="54"/>
     </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" ht="31.2">
+    <row r="20" spans="1:8" s="15" customFormat="1" ht="31.5">
       <c r="A20" s="13" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="16.2" thickBot="1">
+    <row r="21" spans="1:8" s="15" customFormat="1" ht="16.5" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
@@ -2778,7 +3119,7 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:8" ht="16.2" thickBot="1">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
       <c r="C28" s="1">
         <v>10</v>
       </c>
@@ -2841,7 +3182,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1">
       <c r="C35" s="1">
         <v>60</v>
       </c>
@@ -2955,10 +3296,10 @@
       <c r="F48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kmYIaoXYI0dR/rkwKwC4Kas9ZcZcxOdD12xrJR+CCxhL70KgTu4BdK17jHJv20hD2ICR6Fq8ZRXOzwmEnOWTYg==" saltValue="tTQOuVImTsST3xyQF0PaFA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u5S2Kg+NFnOx5C2rpUYUoht0MNISkG1eeJz2MElhVj0zgGxNs8TinQzaTF1kc2Q/8e38tan6wEHzMvY/iYPAJA==" saltValue="/oCi/Xe+Nn3eH4J0nS/khQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
-      <selection activeCell="B12" sqref="B12:G14"/>
+      <selection activeCell="I15" sqref="I15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -2977,9 +3318,12 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{B44B8843-75A1-4EDB-87A4-CB0078683746}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2991,9 +3335,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{3CFD9707-399D-4189-930C-B12ADA61F019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{87F23C78-7120-43F6-B526-4AF2BC01E9E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1770" windowWidth="24660" windowHeight="12390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,13 +198,7 @@
     <t>Rand22</t>
   </si>
   <si>
-    <t>Full Name (5 letters)</t>
-  </si>
-  <si>
     <t>- In C18 enter your name and the data will generate.</t>
-  </si>
-  <si>
-    <t>Experiment with different values of P until the value after 10 years is at least $10,000. Find the least such value of P in whole dollars for simple interest and compound interest. What value did you use?  Answer below in E16:E17 and enter the FV in F16:F17.</t>
   </si>
   <si>
     <t>Comment on what you notice comparing simple and compound interest. (Box Below)</t>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>Video for this DQ</t>
+  </si>
+  <si>
+    <t>For both simple interest and compound interest experiment with different values of P until the future value after 10 years is at least $10,000. For each case, find the least such value of P (A26), in whole dollars, that makes FV ≥ $10,000 (E31 and G31).  Put P in E16:E17 and enter the FV in F16:F17.</t>
+  </si>
+  <si>
+    <t>Your Name</t>
   </si>
 </sst>
 </file>
@@ -912,6 +912,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1063,7 +1064,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1071,7 +1071,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1177,7 +1188,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Interest!$D$21</c:f>
+              <c:f>Interest!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1200,7 +1211,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Interest!$C$22:$C$35</c:f>
+              <c:f>Interest!$C$25:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1251,7 +1262,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Interest!$D$22:$D$35</c:f>
+              <c:f>Interest!$D$25:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1270,7 +1281,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Interest!$F$21</c:f>
+              <c:f>Interest!$F$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1293,7 +1304,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Interest!$C$22:$C$35</c:f>
+              <c:f>Interest!$C$25:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1344,7 +1355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Interest!$F$22:$F$35</c:f>
+              <c:f>Interest!$F$25:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2139,13 +2150,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>82062</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>11719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2175,13 +2186,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>20516</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>71803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2238,13 +2249,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241789</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>430823</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>13189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2301,13 +2312,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>548054</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>27842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>737088</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2364,13 +2375,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>71803</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>174380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2427,13 +2438,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>27842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33703</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2490,8 +2501,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7C803D66-8A4D-4AE1-A40D-772006B3C469}">
-  <header guid="{7C803D66-8A4D-4AE1-A40D-772006B3C469}" dateTime="2021-03-18T08:50:12" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6B77CDBC-DF48-417E-A1D5-71BDD2204A31}">
+  <header guid="{6B77CDBC-DF48-417E-A1D5-71BDD2204A31}" dateTime="2021-09-30T15:43:33" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2506,7 +2517,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{7C803D66-8A4D-4AE1-A40D-772006B3C469}" name="Richard Ketchersid" id="-1739524173" dateTime="2021-03-18T08:50:12"/>
+  <userInfo guid="{6B77CDBC-DF48-417E-A1D5-71BDD2204A31}" name="Richard Ketchersid" id="-1739547155" dateTime="2021-09-30T15:43:33"/>
 </users>
 </file>
 
@@ -2773,15 +2784,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
@@ -2792,381 +2803,358 @@
     <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="2:10" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B2" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="84"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" thickBot="1"/>
+    <row r="4" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="2:10" ht="33" customHeight="1" thickBot="1">
+      <c r="B5" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="I6" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="I8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="I9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B10" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="I10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="B11" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="I11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="2:10" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B14" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="2" spans="2:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B2" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="I3" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="56"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="I5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="I6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B7" s="75" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B15" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="I15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="I7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B8" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="I8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B11" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B12" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="I12" s="96" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-    </row>
-    <row r="15" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="14" t="s">
+    </row>
+    <row r="16" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="D16" s="3" t="s">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="76" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="77"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D17" s="3" t="s">
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1">
+      <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A18" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D19" s="53" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1">
+      <c r="D22" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54" t="s">
+      <c r="E22" s="54"/>
+      <c r="F22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="54"/>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" ht="31.5">
-      <c r="A20" s="13" t="s">
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:8" s="15" customFormat="1" ht="31.5">
+      <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="13" t="s">
+    <row r="24" spans="1:8" s="15" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G24" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="44">
+    <row r="25" spans="1:8">
+      <c r="A25" s="44">
         <v>600</v>
       </c>
-      <c r="B22" s="47" t="str">
-        <f>IF(C18="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
-        <v>Fill C14</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B25" s="47">
+        <f ca="1">IF(D2="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
+        <v>3.4117736816406251E-2</v>
+      </c>
+      <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="C23" s="1">
-        <f>C22+1</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="C24" s="1">
-        <f t="shared" ref="C24:C27" si="0">C23+1</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:8">
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D26" s="25"/>
+        <f>C25+1</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="48"/>
       <c r="E26" s="40"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:8">
       <c r="C27" s="1">
+        <f t="shared" ref="C27:C30" si="0">C26+1</f>
+        <v>2</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1">
-      <c r="C28" s="1">
+      <c r="D30" s="48"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1">
+      <c r="C31" s="1">
         <v>10</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="C29" s="1">
-        <v>15</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="1">
-        <v>20</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="C31" s="1">
-        <v>25</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:8">
       <c r="C32" s="1">
-        <v>30</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="40"/>
@@ -3175,45 +3163,48 @@
     </row>
     <row r="34" spans="1:7">
       <c r="C34" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="40"/>
       <c r="F34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1">
+    <row r="35" spans="1:7">
       <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="1">
+        <v>40</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="1">
+        <v>50</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" thickBot="1">
+      <c r="C38" s="1">
         <v>60</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39"/>
@@ -3295,31 +3286,60 @@
       <c r="E48"/>
       <c r="F48"/>
     </row>
+    <row r="49" spans="1:6">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u5S2Kg+NFnOx5C2rpUYUoht0MNISkG1eeJz2MElhVj0zgGxNs8TinQzaTF1kc2Q/8e38tan6wEHzMvY/iYPAJA==" saltValue="/oCi/Xe+Nn3eH4J0nS/khQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l5nXt7ueUNZk1j84lpHZQk1wBHJbhiPaZRr21MK4AwUMqxGQw7LZRNX7BB0p3MlQr2RFul/0zgkJ0s+JHoWGlg==" saltValue="RpqlmFKVu3ww+qqKcpvN2w==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B2:G6"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G14"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B5:G9"/>
+    <mergeCell ref="B11:G13"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G17"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:J39">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D$2="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId2" xr:uid="{B44B8843-75A1-4EDB-87A4-CB0078683746}"/>
+    <hyperlink ref="I15" r:id="rId2" xr:uid="{B44B8843-75A1-4EDB-87A4-CB0078683746}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3607,20 +3627,20 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f>CODE(MID(Interest!C$18,A6,1))</f>
-        <v>70</v>
+        <f>CODE(MID(Interest!D$2,A6,1))</f>
+        <v>89</v>
       </c>
       <c r="C6">
         <f>MOD(B6,16)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <f>MOD((B6-C6)/16,16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
-        <v>251</v>
+        <v>439</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3679,20 +3699,20 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <f>CODE(MID(Interest!C$18,A7,1))</f>
-        <v>117</v>
+        <f>CODE(MID(Interest!D$2,A7,1))</f>
+        <v>111</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
-        <v>211</v>
+        <v>839</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3751,20 +3771,20 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>CODE(MID(Interest!C$18,A8,1))</f>
-        <v>108</v>
+        <f>CODE(MID(Interest!D$2,A8,1))</f>
+        <v>117</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>641</v>
+        <v>211</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3823,20 +3843,20 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>CODE(MID(Interest!C$18,A9,1))</f>
-        <v>108</v>
+        <f>CODE(MID(Interest!D$2,A9,1))</f>
+        <v>114</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>641</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3895,7 +3915,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <f>CODE(MID(Interest!C$18,A10,1))</f>
+        <f>CODE(MID(Interest!D$2,A10,1))</f>
         <v>32</v>
       </c>
       <c r="C10">
@@ -3968,7 +3988,7 @@
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
-        <v>26562</v>
+        <v>3778</v>
       </c>
       <c r="F11">
         <v>1103515245</v>
@@ -4031,7 +4051,7 @@
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*F11+F12,F13)</f>
-        <v>31187</v>
+        <v>5331</v>
       </c>
       <c r="C12">
         <f ca="1">MOD(B12,2)</f>
@@ -4039,11 +4059,11 @@
       </c>
       <c r="D12">
         <f ca="1">B12/F$13</f>
-        <v>0.951751708984375</v>
+        <v>0.162689208984375</v>
       </c>
       <c r="E12">
         <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>12345</v>
@@ -4106,7 +4126,7 @@
       </c>
       <c r="B13" s="46">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
-        <v>22800</v>
+        <v>22544</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
@@ -4114,7 +4134,7 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D33" ca="1" si="5">B13/F$13</f>
-        <v>0.69580078125</v>
+        <v>0.68798828125</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
@@ -4181,19 +4201,19 @@
       </c>
       <c r="B14" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>31753</v>
+        <v>3849</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.969024658203125</v>
+        <v>0.117462158203125</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -4253,19 +4273,19 @@
       </c>
       <c r="B15" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>15886</v>
+        <v>21774</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48480224609375</v>
+        <v>0.66448974609375</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -4325,19 +4345,19 @@
       </c>
       <c r="B16" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>24623</v>
+        <v>11055</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.751434326171875</v>
+        <v>0.337371826171875</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -4397,7 +4417,7 @@
       </c>
       <c r="B17" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>30268</v>
+        <v>25916</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="4"/>
@@ -4405,7 +4425,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9237060546875</v>
+        <v>0.7908935546875</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="6"/>
@@ -4469,19 +4489,19 @@
       </c>
       <c r="B18" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>20421</v>
+        <v>4805</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.623199462890625</v>
+        <v>0.146636962890625</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -4490,7 +4510,7 @@
       </c>
       <c r="B19" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>11546</v>
+        <v>13338</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="4"/>
@@ -4498,7 +4518,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35235595703125</v>
+        <v>0.40704345703125</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="6"/>
@@ -4511,7 +4531,7 @@
       </c>
       <c r="B20" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>20555</v>
+        <v>19275</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="4"/>
@@ -4519,7 +4539,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.627288818359375</v>
+        <v>0.588226318359375</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="6"/>
@@ -4532,7 +4552,7 @@
       </c>
       <c r="B21" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>14888</v>
+        <v>6440</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
@@ -4540,11 +4560,11 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.454345703125</v>
+        <v>0.196533203125</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -4553,7 +4573,7 @@
       </c>
       <c r="B22" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9025</v>
+        <v>5697</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="4"/>
@@ -4561,11 +4581,11 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.275421142578125</v>
+        <v>0.173858642578125</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="46"/>
     </row>
@@ -4575,19 +4595,19 @@
       </c>
       <c r="B23" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <v>30694</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="5"/>
-        <v>7.01904296875E-3</v>
+        <v>0.93670654296875</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="46"/>
     </row>
@@ -4597,19 +4617,19 @@
       </c>
       <c r="B24" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9767</v>
+        <v>20775</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.298065185546875</v>
+        <v>0.634002685546875</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" s="46"/>
     </row>
@@ -4619,19 +4639,19 @@
       </c>
       <c r="B25" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>20692</v>
+        <v>8148</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6314697265625</v>
+        <v>0.2486572265625</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="46"/>
     </row>
@@ -4641,19 +4661,19 @@
       </c>
       <c r="B26" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>12925</v>
+        <v>21885</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.394439697265625</v>
+        <v>0.667877197265625</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" s="46"/>
     </row>
@@ -4663,19 +4683,19 @@
       </c>
       <c r="B27" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>17778</v>
+        <v>11378</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54254150390625</v>
+        <v>0.34722900390625</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" s="46"/>
     </row>
@@ -4685,7 +4705,7 @@
       </c>
       <c r="B28" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>32195</v>
+        <v>22723</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
@@ -4693,11 +4713,11 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.982513427734375</v>
+        <v>0.693450927734375</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" s="46"/>
     </row>
@@ -4707,19 +4727,19 @@
       </c>
       <c r="B29" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9792</v>
+        <v>25920</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.298828125</v>
+        <v>0.791015625</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29" s="46"/>
     </row>
@@ -4729,7 +4749,7 @@
       </c>
       <c r="B30" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>31097</v>
+        <v>19577</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
@@ -4737,11 +4757,11 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.949005126953125</v>
+        <v>0.597442626953125</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="46"/>
     </row>
@@ -4751,19 +4771,19 @@
       </c>
       <c r="B31" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>18110</v>
+        <v>7614</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55267333984375</v>
+        <v>0.23236083984375</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="46"/>
     </row>
@@ -4773,7 +4793,7 @@
       </c>
       <c r="B32" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>13087</v>
+        <v>15903</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
@@ -4781,7 +4801,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.399383544921875</v>
+        <v>0.485321044921875</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
@@ -4795,19 +4815,19 @@
       </c>
       <c r="B33" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>26220</v>
+        <v>5484</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8001708984375</v>
+        <v>0.1673583984375</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33" s="46"/>
     </row>

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{87F23C78-7120-43F6-B526-4AF2BC01E9E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{495A6CD7-00B1-4580-8B97-5227480AA3E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1770" windowWidth="24660" windowHeight="12390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Principal</t>
   </si>
@@ -198,20 +198,12 @@
     <t>Rand22</t>
   </si>
   <si>
-    <t>- In C18 enter your name and the data will generate.</t>
-  </si>
-  <si>
     <t>Comment on what you notice comparing simple and compound interest. (Box Below)</t>
   </si>
   <si>
     <t>Comment on what you notice here.</t>
   </si>
   <si>
-    <t>- In E22 write the Excel formula for P +  P⋅r⋅t (simple interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
-- In G22 write the Excel formula for P⋅(1 + r)^t (compound interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
-- In F22 and D22 write the Excel formula for I = FV - P. Again, add necessary "$" signs to your cell references.</t>
-  </si>
-  <si>
     <t>Fill out the table without entering any additional formulas. (One double click will do it!)</t>
   </si>
   <si>
@@ -221,10 +213,15 @@
     <t>Video for this DQ</t>
   </si>
   <si>
-    <t>For both simple interest and compound interest experiment with different values of P until the future value after 10 years is at least $10,000. For each case, find the least such value of P (A26), in whole dollars, that makes FV ≥ $10,000 (E31 and G31).  Put P in E16:E17 and enter the FV in F16:F17.</t>
-  </si>
-  <si>
     <t>Your Name</t>
+  </si>
+  <si>
+    <t>- In E24 write the Excel formula for P +  P⋅r⋅t (simple interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
+- In G24 write the Excel formula for P⋅(1 + r)^t (compound interest). Add "$" signs on your cell references for P and r so that autofill correctly copies those down.
+- In F24 and D24 write the Excel formula for I = FV - P. Again, add necessary "$" signs to your cell references.</t>
+  </si>
+  <si>
+    <t>For both simple interest and compound interest experiment with different values of P until the future value after 10 years is at least $10,000. For each case, find the least such value of P (A24), in whole dollars, that makes FV ≥ $10,000 (E30 and G30).  Put P in E18:E19 and enter the FV in F18:F19.</t>
   </si>
 </sst>
 </file>
@@ -743,7 +740,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,9 +910,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1188,7 +1182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Interest!$D$24</c:f>
+              <c:f>Interest!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1211,7 +1205,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Interest!$C$25:$C$38</c:f>
+              <c:f>Interest!$C$24:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1262,7 +1256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Interest!$D$25:$D$38</c:f>
+              <c:f>Interest!$D$24:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1281,7 +1275,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Interest!$F$24</c:f>
+              <c:f>Interest!$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,7 +1298,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Interest!$C$25:$C$38</c:f>
+              <c:f>Interest!$C$24:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1355,7 +1349,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Interest!$F$25:$F$38</c:f>
+              <c:f>Interest!$F$24:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2150,13 +2144,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>82062</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>11719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2186,13 +2180,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>20516</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>71803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2249,13 +2243,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241789</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>430823</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>13189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2312,13 +2306,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>548054</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>27842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>737088</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2375,13 +2369,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>161191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>71803</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>174380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2438,13 +2432,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>27842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33703</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2501,8 +2495,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6B77CDBC-DF48-417E-A1D5-71BDD2204A31}">
-  <header guid="{6B77CDBC-DF48-417E-A1D5-71BDD2204A31}" dateTime="2021-09-30T15:43:33" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1547608F-9533-4B8D-8F1A-E2F89D786950}">
+  <header guid="{1547608F-9533-4B8D-8F1A-E2F89D786950}" dateTime="2021-11-12T12:26:18" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2517,7 +2511,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{6B77CDBC-DF48-417E-A1D5-71BDD2204A31}" name="Richard Ketchersid" id="-1739547155" dateTime="2021-09-30T15:43:33"/>
+  <userInfo guid="{1547608F-9533-4B8D-8F1A-E2F89D786950}" name="Richard Ketchersid" id="-1739545843" dateTime="2021-11-12T12:26:18"/>
 </users>
 </file>
 
@@ -2784,7 +2778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="184" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
@@ -2805,299 +2799,299 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="84"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1"/>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="2:10" ht="33" customHeight="1" thickBot="1">
+      <c r="B4" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="I5" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="I8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B9" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="B10" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="I10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+    </row>
+    <row r="12" spans="2:10" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B13" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="2:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B5" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="I6" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="57"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="I7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="I8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="I9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B10" s="76" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" customHeight="1">
+      <c r="B14" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="I14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="I10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B11" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="I11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-    </row>
-    <row r="13" spans="2:10" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B14" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B15" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-      <c r="I15" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="14" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="92"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1">
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="45"/>
-      <c r="G19" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D22" s="54" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1">
+      <c r="D21" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55" t="s">
+      <c r="E21" s="53"/>
+      <c r="F21" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="55"/>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" ht="31.5">
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" s="15" customFormat="1" ht="31.5">
+      <c r="A22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="15" customFormat="1" ht="16.5" thickBot="1">
       <c r="A23" s="13" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="44">
+    <row r="24" spans="1:8">
+      <c r="A24" s="44">
         <v>600</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B24" s="47">
         <f ca="1">IF(D2="Full Name (5 letters)", "Fill C14",5%+SIGN(0.5-Sheet1!C15)*(1%+Sheet1!D20/100))</f>
         <v>3.4117736816406251E-2</v>
       </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+        <f>C24+1</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8">
       <c r="C26" s="1">
-        <f>C25+1</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="48"/>
+        <f t="shared" ref="C26:C29" si="0">C25+1</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="40"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C30" si="0">C26+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="40"/>
@@ -3107,54 +3101,53 @@
     <row r="28" spans="1:8">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="40"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1">
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:8">
       <c r="C32" s="1">
-        <v>15</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
       <c r="C33" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="40"/>
@@ -3163,7 +3156,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="C34" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="40"/>
@@ -3172,7 +3165,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="C35" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="40"/>
@@ -3181,30 +3174,29 @@
     </row>
     <row r="36" spans="1:7">
       <c r="C36" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="40"/>
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1">
       <c r="C37" s="1">
-        <v>50</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" thickBot="1">
-      <c r="C38" s="1">
         <v>60</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39"/>
@@ -3302,16 +3294,8 @@
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l5nXt7ueUNZk1j84lpHZQk1wBHJbhiPaZRr21MK4AwUMqxGQw7LZRNX7BB0p3MlQr2RFul/0zgkJ0s+JHoWGlg==" saltValue="RpqlmFKVu3ww+qqKcpvN2w==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JMWtHEx0XZ/jA7JieZYn6tQsoINESTzYbFYk+WaCKGF1qRFiqwjhVsAlELJx6pkS/cqJZqviGwKRl5M4iEbagw==" saltValue="XZ9o04YaaWD6aVnPPQXFlg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
       <selection activeCell="D2" sqref="D2:E2"/>
@@ -3319,27 +3303,26 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="12">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B5:G9"/>
-    <mergeCell ref="B11:G13"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="G19:H20"/>
+  <mergeCells count="11">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B10:G12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="G18:H19"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:J39">
+  <conditionalFormatting sqref="A3:J38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId2" xr:uid="{B44B8843-75A1-4EDB-87A4-CB0078683746}"/>
+    <hyperlink ref="I14" r:id="rId2" xr:uid="{B44B8843-75A1-4EDB-87A4-CB0078683746}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{495A6CD7-00B1-4580-8B97-5227480AA3E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{57B5B204-44F8-4A33-A26C-EC671B283DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1770" windowWidth="24660" windowHeight="12390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,11 +910,64 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -987,6 +1040,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -998,65 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2491,12 +2491,63 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120895</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373672</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06A383E-392E-4E00-A270-1473B98FD8D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2355607" y="4879731"/>
+          <a:ext cx="252777" cy="252777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1547608F-9533-4B8D-8F1A-E2F89D786950}">
-  <header guid="{1547608F-9533-4B8D-8F1A-E2F89D786950}" dateTime="2021-11-12T12:26:18" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1BE77225-0638-4A5F-AB0C-DCE4C718CE57}">
+  <header guid="{1BE77225-0638-4A5F-AB0C-DCE4C718CE57}" dateTime="2022-03-31T12:18:58" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2511,7 +2562,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{1547608F-9533-4B8D-8F1A-E2F89D786950}" name="Richard Ketchersid" id="-1739545843" dateTime="2021-11-12T12:26:18"/>
+  <userInfo guid="{1BE77225-0638-4A5F-AB0C-DCE4C718CE57}" name="Richard Ketchersid" id="-1739544957" dateTime="2022-03-31T12:18:58"/>
 </users>
 </file>
 
@@ -2799,45 +2850,45 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1"/>
     <row r="4" spans="2:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="I5" s="55" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="I5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="56"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
       <c r="I6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2846,12 +2897,12 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
       <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2860,12 +2911,12 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
       <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
@@ -2874,14 +2925,14 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2890,14 +2941,14 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
@@ -2906,59 +2957,59 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="2:10" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
       <c r="I14" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="16" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1">
       <c r="B17" s="20"/>
@@ -2978,10 +3029,10 @@
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="45"/>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="77"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1">
       <c r="D19" s="3" t="s">
@@ -2989,22 +3040,22 @@
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="45"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
     </row>
     <row r="20" spans="1:8">
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" ht="31.5">
       <c r="A22" s="13" t="s">
@@ -3295,7 +3346,7 @@
       <c r="F50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JMWtHEx0XZ/jA7JieZYn6tQsoINESTzYbFYk+WaCKGF1qRFiqwjhVsAlELJx6pkS/cqJZqviGwKRl5M4iEbagw==" saltValue="XZ9o04YaaWD6aVnPPQXFlg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fwa717jxLZZ12Tj3fmh22LPgDHFBvuAS+JlnMgeJNPxIqaisBHCc25YG59+KEZ/4hTVRr2M8TYqamAKyWce2rA==" saltValue="8MwMXRSv+R+cQ5en7vnEHA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" scale="130">
       <selection activeCell="D2" sqref="D2:E2"/>
@@ -3304,17 +3355,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B10:G12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="G18:H19"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G16"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B10:G12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="G18:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:J38">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{57B5B204-44F8-4A33-A26C-EC671B283DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{2D4C3BE7-0B45-485B-8682-9278718D3316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1770" windowWidth="24660" windowHeight="12390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Principal</t>
   </si>
@@ -222,6 +223,9 @@
   </si>
   <si>
     <t>For both simple interest and compound interest experiment with different values of P until the future value after 10 years is at least $10,000. For each case, find the least such value of P (A24), in whole dollars, that makes FV ≥ $10,000 (E30 and G30).  Put P in E18:E19 and enter the FV in F18:F19.</t>
+  </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +236,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +285,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -740,7 +752,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,6 +1069,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2546,10 +2561,18 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1BE77225-0638-4A5F-AB0C-DCE4C718CE57}">
-  <header guid="{1BE77225-0638-4A5F-AB0C-DCE4C718CE57}" dateTime="2022-03-31T12:18:58" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{854AA288-1C59-4B08-8EFF-F811F524E269}" diskRevisions="1" version="2">
+  <header guid="{0F7C3A8F-A5A7-432B-9EDD-8B42CBF5B626}" dateTime="2022-07-20T13:52:58" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
       <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{854AA288-1C59-4B08-8EFF-F811F524E269}" dateTime="2022-07-20T13:56:47" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
@@ -2560,9 +2583,17 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="delete"/>
+  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{1BE77225-0638-4A5F-AB0C-DCE4C718CE57}" name="Richard Ketchersid" id="-1739544957" dateTime="2022-03-31T12:18:58"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+  <userInfo guid="{0F7C3A8F-A5A7-432B-9EDD-8B42CBF5B626}" name="Richard Ketchersid" id="-1739540673" dateTime="2022-07-20T13:52:58"/>
+  <userInfo guid="{854AA288-1C59-4B08-8EFF-F811F524E269}" name="Richard Ketchersid" id="-1739529353" dateTime="2022-07-20T13:56:00"/>
 </users>
 </file>
 
@@ -3329,22 +3360,8 @@
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-    </row>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Fwa717jxLZZ12Tj3fmh22LPgDHFBvuAS+JlnMgeJNPxIqaisBHCc25YG59+KEZ/4hTVRr2M8TYqamAKyWce2rA==" saltValue="8MwMXRSv+R+cQ5en7vnEHA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
@@ -4910,4 +4927,74 @@
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B62DEE-5A67-44A7-A9A3-7B2DE0FA971B}">
+  <dimension ref="B4:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" state="hidden">
+      <selection activeCell="E21" sqref="E21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
+++ b/144F20/Topic 3/QR_2-3_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{2D4C3BE7-0B45-485B-8682-9278718D3316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{242AF829-FC5C-4123-940D-2D6C435F9C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1770" windowWidth="24660" windowHeight="12390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,6 +922,89 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,89 +1069,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2561,7 +2561,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{854AA288-1C59-4B08-8EFF-F811F524E269}" diskRevisions="1" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{09ABC43F-D0E7-4FEB-85B9-BBCD9CEE14BA}" diskRevisions="1" version="3">
   <header guid="{0F7C3A8F-A5A7-432B-9EDD-8B42CBF5B626}" dateTime="2022-07-20T13:52:58" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -2570,6 +2570,13 @@
     </sheetIdMap>
   </header>
   <header guid="{854AA288-1C59-4B08-8EFF-F811F524E269}" dateTime="2022-07-20T13:56:47" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{09ABC43F-D0E7-4FEB-85B9-BBCD9CEE14BA}" dateTime="2022-07-20T14:41:32" maxSheetId="4" userName="Richard Ketchersid" r:id="rId3">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="3"/>
@@ -2590,10 +2597,18 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="delete"/>
+  <rcv guid="{155D4935-5B0D-4D9B-9526-5391F2A5AE7E}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{0F7C3A8F-A5A7-432B-9EDD-8B42CBF5B626}" name="Richard Ketchersid" id="-1739540673" dateTime="2022-07-20T13:52:58"/>
   <userInfo guid="{854AA288-1C59-4B08-8EFF-F811F524E269}" name="Richard Ketchersid" id="-1739529353" dateTime="2022-07-20T13:56:00"/>
+  <userInfo guid="{09ABC43F-D0E7-4FEB-85B9-BBCD9CEE14BA}" name="Richard Ketchersid" id="-1739556717" dateTime="2022-07-20T14:41:07"/>
 </users>
 </file>
 
@@ -2881,45 +2896,45 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1"/>
     <row r="4" spans="2:10" ht="33" customHeight="1" thickBot="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="I5" s="69" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="I5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
       <c r="I6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2928,12 +2943,12 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
       <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2942,12 +2957,12 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
@@ -2956,14 +2971,14 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2972,14 +2987,14 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
@@ -2988,59 +3003,59 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="2:10" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
       <c r="I14" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.6" customHeight="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="2:10" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1">
       <c r="B17" s="20"/>
@@ -3060,10 +3075,10 @@
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="45"/>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1">
       <c r="D19" s="3" t="s">
@@ -3071,22 +3086,22 @@
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="45"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
     </row>
     <row r="20" spans="1:8">
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="94"/>
+      <c r="F21" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="95"/>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" ht="31.5">
       <c r="A22" s="13" t="s">
@@ -3372,17 +3387,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B10:G12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="G18:H19"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G16"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B10:G12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="G18:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:J38">
     <cfRule type="expression" dxfId="0" priority="1">
